--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1094118.390567211</v>
+        <v>-1096791.946456345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9514625.964162866</v>
+        <v>9514625.964162877</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>66.19145626239782</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9408310226502</v>
@@ -1388,7 +1388,7 @@
         <v>294.803427249607</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31348951888498</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9967003884377</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>248.3195722190328</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I12" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>63.9332830689476</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0343782699241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8312101021039</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5855665954515</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>112.8619716375474</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>377.0611154334387</v>
+        <v>410.9408310226503</v>
       </c>
       <c r="H14" t="n">
-        <v>294.803427249607</v>
+        <v>32.52127372971287</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31348951888492</v>
+        <v>42.31348951888506</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.6231253887475</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>204.001603893279</v>
+        <v>204.0016038932792</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9967003884377</v>
+        <v>250.9967003884378</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I15" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0343782699241</v>
+        <v>123.2090275245737</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5855665954515</v>
+        <v>219.5855665954516</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2123056607526</v>
+        <v>286.2123056607527</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>285.7514977449237</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C17" t="n">
-        <v>269.4665794035968</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D17" t="n">
         <v>307.320284151867</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.26036791993167</v>
+        <v>13.81681302133661</v>
       </c>
       <c r="T17" t="n">
         <v>156.6388464244632</v>
@@ -1941,7 +1941,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I18" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D19" t="n">
-        <v>101.2527155493965</v>
+        <v>101.2527155493964</v>
       </c>
       <c r="E19" t="n">
-        <v>99.07120517775327</v>
+        <v>99.07120517775326</v>
       </c>
       <c r="F19" t="n">
-        <v>98.05829055411535</v>
+        <v>98.05829055411533</v>
       </c>
       <c r="G19" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H19" t="n">
-        <v>97.46845263328801</v>
+        <v>97.468452633288</v>
       </c>
       <c r="I19" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141745</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S19" t="n">
         <v>142.5556197797837</v>
@@ -2081,19 +2081,19 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C20" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D20" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E20" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F20" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G20" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H20" t="n">
         <v>247.4406697807911</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993162</v>
       </c>
       <c r="T20" t="n">
-        <v>156.6388464244632</v>
+        <v>108.1952915258692</v>
       </c>
       <c r="U20" t="n">
         <v>203.6339429196218</v>
@@ -2141,10 +2141,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W20" t="n">
-        <v>253.4346563500025</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X20" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y20" t="n">
         <v>338.8751811872377</v>
@@ -2178,7 +2178,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I21" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585361</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E22" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F22" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G22" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H22" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141747</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X22" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y22" t="n">
         <v>171.2218958832789</v>
@@ -2321,13 +2321,13 @@
         <v>317.9101343021916</v>
       </c>
       <c r="D23" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E23" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F23" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G23" t="n">
         <v>363.5780735538343</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993165</v>
       </c>
       <c r="T23" t="n">
         <v>156.6388464244632</v>
@@ -2378,10 +2378,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W23" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X23" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y23" t="n">
         <v>338.8751811872377</v>
@@ -2415,7 +2415,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I24" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D25" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E25" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F25" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G25" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H25" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141748</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478495</v>
       </c>
       <c r="S25" t="n">
         <v>142.5556197797837</v>
@@ -2539,7 +2539,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X25" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y25" t="n">
         <v>171.2218958832789</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993165</v>
       </c>
       <c r="T26" t="n">
         <v>156.6388464244632</v>
@@ -2652,7 +2652,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I27" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D28" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E28" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775327</v>
       </c>
       <c r="F28" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411535</v>
       </c>
       <c r="G28" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H28" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328801</v>
       </c>
       <c r="I28" t="n">
         <v>49.24738654141746</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S28" t="n">
         <v>142.5556197797837</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3710841946647</v>
+        <v>335.3710841946646</v>
       </c>
       <c r="C29" t="n">
         <v>317.9101343021916</v>
@@ -2798,7 +2798,7 @@
         <v>307.320284151867</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5676126034459</v>
+        <v>334.5676126034458</v>
       </c>
       <c r="F29" t="n">
         <v>359.5132882728955</v>
@@ -2807,7 +2807,7 @@
         <v>363.5780735538343</v>
       </c>
       <c r="H29" t="n">
-        <v>247.4406697807911</v>
+        <v>247.440669780791</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.26036791993167</v>
+        <v>62.26036791993157</v>
       </c>
       <c r="T29" t="n">
-        <v>156.6388464244632</v>
+        <v>156.6388464244631</v>
       </c>
       <c r="U29" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196217</v>
       </c>
       <c r="V29" t="n">
-        <v>280.389501001319</v>
+        <v>280.3895010013189</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8782112485971</v>
+        <v>301.878211248597</v>
       </c>
       <c r="X29" t="n">
         <v>322.3683432096531</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8751811872377</v>
+        <v>338.8751811872376</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I30" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4692227131214</v>
+        <v>132.4692227131213</v>
       </c>
       <c r="C31" t="n">
         <v>119.8840636298119</v>
       </c>
       <c r="D31" t="n">
-        <v>101.2527155493952</v>
+        <v>101.2527155493988</v>
       </c>
       <c r="E31" t="n">
-        <v>99.07120517775327</v>
+        <v>99.0712051777532</v>
       </c>
       <c r="F31" t="n">
-        <v>98.05829055411535</v>
+        <v>98.05829055411527</v>
       </c>
       <c r="G31" t="n">
-        <v>118.6716208011082</v>
+        <v>118.6716208011081</v>
       </c>
       <c r="H31" t="n">
-        <v>97.46845263328801</v>
+        <v>97.46845263328794</v>
       </c>
       <c r="I31" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141739</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478486</v>
       </c>
       <c r="S31" t="n">
-        <v>142.5556197797837</v>
+        <v>142.5556197797836</v>
       </c>
       <c r="T31" t="n">
-        <v>172.2228091266356</v>
+        <v>172.2228091266355</v>
       </c>
       <c r="U31" t="n">
         <v>238.8495481919367</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7748858550121</v>
+        <v>204.774885855012</v>
       </c>
       <c r="W31" t="n">
-        <v>239.1602408677751</v>
+        <v>239.160240867775</v>
       </c>
       <c r="X31" t="n">
         <v>178.3468979202212</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.2218958832789</v>
+        <v>171.2218958832788</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C32" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D32" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E32" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F32" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G32" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H32" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.26036791993167</v>
+        <v>62.26036791993165</v>
       </c>
       <c r="T32" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U32" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V32" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W32" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X32" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y32" t="n">
         <v>338.8751811872377</v>
@@ -3126,7 +3126,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I33" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D34" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E34" t="n">
-        <v>99.07120517775328</v>
+        <v>99.0712051777533</v>
       </c>
       <c r="F34" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411537</v>
       </c>
       <c r="G34" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H34" t="n">
-        <v>97.46845263328802</v>
+        <v>97.46845263328804</v>
       </c>
       <c r="I34" t="n">
         <v>49.24738654141749</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95473405478496</v>
+        <v>41.95473405478498</v>
       </c>
       <c r="S34" t="n">
         <v>142.5556197797837</v>
@@ -3241,7 +3241,7 @@
         <v>172.2228091266356</v>
       </c>
       <c r="U34" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V34" t="n">
         <v>204.7748858550121</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993162</v>
       </c>
       <c r="T35" t="n">
         <v>156.6388464244632</v>
@@ -3363,7 +3363,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I36" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>97.468452633288</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141745</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S37" t="n">
         <v>142.5556197797837</v>
@@ -3503,19 +3503,19 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C38" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D38" t="n">
-        <v>307.3202841518671</v>
+        <v>307.320284151867</v>
       </c>
       <c r="E38" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5132882728956</v>
+        <v>359.5132882728955</v>
       </c>
       <c r="G38" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H38" t="n">
         <v>247.4406697807911</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.26036791993167</v>
+        <v>62.26036791993162</v>
       </c>
       <c r="T38" t="n">
         <v>156.6388464244632</v>
@@ -3563,10 +3563,10 @@
         <v>280.389501001319</v>
       </c>
       <c r="W38" t="n">
-        <v>301.8782112485972</v>
+        <v>301.8782112485971</v>
       </c>
       <c r="X38" t="n">
-        <v>322.3683432096532</v>
+        <v>322.3683432096531</v>
       </c>
       <c r="Y38" t="n">
         <v>338.8751811872377</v>
@@ -3600,7 +3600,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I39" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D40" t="n">
-        <v>101.2527155493965</v>
+        <v>101.2527155493964</v>
       </c>
       <c r="E40" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775326</v>
       </c>
       <c r="F40" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411533</v>
       </c>
       <c r="G40" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H40" t="n">
-        <v>97.46845263328802</v>
+        <v>97.468452633288</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24738654141749</v>
+        <v>49.24738654141745</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95473405478496</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S40" t="n">
         <v>142.5556197797837</v>
@@ -3724,7 +3724,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X40" t="n">
-        <v>178.3468979202213</v>
+        <v>178.3468979202212</v>
       </c>
       <c r="Y40" t="n">
         <v>171.2218958832789</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.26036791993167</v>
+        <v>62.26036791993162</v>
       </c>
       <c r="T41" t="n">
         <v>156.6388464244632</v>
@@ -3837,7 +3837,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I42" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D43" t="n">
-        <v>101.2527155493965</v>
+        <v>101.2527155493964</v>
       </c>
       <c r="E43" t="n">
-        <v>99.07120517775327</v>
+        <v>99.07120517775326</v>
       </c>
       <c r="F43" t="n">
-        <v>98.05829055411535</v>
+        <v>98.05829055411533</v>
       </c>
       <c r="G43" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H43" t="n">
-        <v>97.46845263328801</v>
+        <v>97.468452633288</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24738654141748</v>
+        <v>49.24738654141745</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S43" t="n">
         <v>142.5556197797837</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26036791993167</v>
+        <v>62.26036791993162</v>
       </c>
       <c r="T44" t="n">
         <v>156.6388464244632</v>
@@ -4074,7 +4074,7 @@
         <v>89.69560106204054</v>
       </c>
       <c r="I45" t="n">
-        <v>9.043422624585389</v>
+        <v>9.043422624585375</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D46" t="n">
-        <v>101.2527155493965</v>
+        <v>101.2527155493964</v>
       </c>
       <c r="E46" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775326</v>
       </c>
       <c r="F46" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411533</v>
       </c>
       <c r="G46" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H46" t="n">
-        <v>97.46845263328802</v>
+        <v>97.468452633288</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24738654141749</v>
+        <v>49.24738654141745</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95473405478496</v>
+        <v>41.95473405478492</v>
       </c>
       <c r="S46" t="n">
         <v>142.5556197797837</v>
@@ -4198,7 +4198,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X46" t="n">
-        <v>178.3468979202213</v>
+        <v>178.3468979202212</v>
       </c>
       <c r="Y46" t="n">
         <v>171.2218958832789</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.911695267016</v>
+        <v>1214.74176713785</v>
       </c>
       <c r="C11" t="n">
-        <v>1590.911695267016</v>
+        <v>845.7792501974386</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.645996660266</v>
+        <v>845.7792501974386</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.645996660266</v>
+        <v>778.9191933667338</v>
       </c>
       <c r="F11" t="n">
-        <v>821.660091870658</v>
+        <v>778.9191933667338</v>
       </c>
       <c r="G11" t="n">
-        <v>406.5683433629306</v>
+        <v>363.8274448590063</v>
       </c>
       <c r="H11" t="n">
-        <v>108.7871037168628</v>
+        <v>66.04620521293862</v>
       </c>
       <c r="I11" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293862</v>
       </c>
       <c r="J11" t="n">
         <v>253.3200072863874</v>
       </c>
       <c r="K11" t="n">
-        <v>584.7334091153384</v>
+        <v>584.7334091153382</v>
       </c>
       <c r="L11" t="n">
         <v>1032.782801519721</v>
       </c>
       <c r="M11" t="n">
-        <v>1562.99351788926</v>
+        <v>1562.993517889261</v>
       </c>
       <c r="N11" t="n">
-        <v>2106.397406346729</v>
+        <v>2106.39740634673</v>
       </c>
       <c r="O11" t="n">
         <v>2606.183027849554</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.237491994244</v>
+        <v>2998.237491994246</v>
       </c>
       <c r="Q11" t="n">
-        <v>3244.481320461456</v>
+        <v>3244.481320461458</v>
       </c>
       <c r="R11" t="n">
-        <v>3302.310260646929</v>
+        <v>3302.310260646931</v>
       </c>
       <c r="S11" t="n">
-        <v>3302.310260646929</v>
+        <v>3302.310260646931</v>
       </c>
       <c r="T11" t="n">
-        <v>3302.310260646929</v>
+        <v>3302.310260646931</v>
       </c>
       <c r="U11" t="n">
-        <v>3302.310260646929</v>
+        <v>3048.778240052549</v>
       </c>
       <c r="V11" t="n">
-        <v>2971.247373303358</v>
+        <v>2717.715352708979</v>
       </c>
       <c r="W11" t="n">
-        <v>2618.478718033245</v>
+        <v>2364.946697438865</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.650867306949</v>
+        <v>1991.480939177784</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.511535331138</v>
+        <v>1601.341607201972</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>165.782592775187</v>
       </c>
       <c r="H12" t="n">
-        <v>75.18097554080262</v>
+        <v>75.18097554080263</v>
       </c>
       <c r="I12" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293862</v>
       </c>
       <c r="J12" t="n">
-        <v>164.710609378644</v>
+        <v>158.7673518169102</v>
       </c>
       <c r="K12" t="n">
-        <v>401.3406420567007</v>
+        <v>395.397384494967</v>
       </c>
       <c r="L12" t="n">
-        <v>765.8414641072892</v>
+        <v>759.8982065455556</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.553599219511</v>
+        <v>1204.610341657778</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.444586181644</v>
+        <v>1675.501328619911</v>
       </c>
       <c r="O12" t="n">
-        <v>2089.998048031718</v>
+        <v>2084.054790469985</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.56515363257</v>
+        <v>2392.621896070837</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.91489564884</v>
+        <v>2548.971638087106</v>
       </c>
       <c r="R12" t="n">
         <v>2554.91489564884</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.4969224230925</v>
+        <v>743.8853465608788</v>
       </c>
       <c r="C13" t="n">
-        <v>528.5607394951855</v>
+        <v>574.9491636329719</v>
       </c>
       <c r="D13" t="n">
-        <v>528.5607394951855</v>
+        <v>424.8325242206362</v>
       </c>
       <c r="E13" t="n">
-        <v>380.6476459127924</v>
+        <v>276.9194306382431</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7576984148821</v>
+        <v>212.3403568312254</v>
       </c>
       <c r="G13" t="n">
-        <v>66.04620521293859</v>
+        <v>212.3403568312254</v>
       </c>
       <c r="H13" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293862</v>
       </c>
       <c r="I13" t="n">
-        <v>66.04620521293859</v>
+        <v>66.04620521293862</v>
       </c>
       <c r="J13" t="n">
-        <v>110.5689968872408</v>
+        <v>110.5689968872406</v>
       </c>
       <c r="K13" t="n">
-        <v>313.5704571828762</v>
+        <v>313.5704571828761</v>
       </c>
       <c r="L13" t="n">
         <v>628.8688700076553</v>
       </c>
       <c r="M13" t="n">
-        <v>971.6959613263094</v>
+        <v>971.6959613263095</v>
       </c>
       <c r="N13" t="n">
         <v>1311.806007091485</v>
@@ -5218,31 +5218,31 @@
         <v>1841.517748856254</v>
       </c>
       <c r="Q13" t="n">
-        <v>1918.417599675513</v>
+        <v>1918.417599675514</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.417599675513</v>
+        <v>1918.417599675514</v>
       </c>
       <c r="S13" t="n">
-        <v>1918.417599675513</v>
+        <v>1918.417599675514</v>
       </c>
       <c r="T13" t="n">
-        <v>1696.613997053845</v>
+        <v>1918.417599675514</v>
       </c>
       <c r="U13" t="n">
-        <v>1582.612005500767</v>
+        <v>1918.417599675514</v>
       </c>
       <c r="V13" t="n">
-        <v>1327.92751729488</v>
+        <v>1663.733111469627</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.92751729488</v>
+        <v>1374.315941432666</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.937966396862</v>
+        <v>1146.326390534649</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.1453872533323</v>
+        <v>925.5338113911185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.217685810167</v>
+        <v>1708.94811549577</v>
       </c>
       <c r="C14" t="n">
-        <v>1598.217685810167</v>
+        <v>1339.985598555359</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.217685810167</v>
+        <v>981.7198999486077</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.429433211923</v>
+        <v>981.7198999486077</v>
       </c>
       <c r="F14" t="n">
-        <v>801.4435284223157</v>
+        <v>570.733995159</v>
       </c>
       <c r="G14" t="n">
-        <v>420.5737148531857</v>
+        <v>155.6422466512723</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7924752071177</v>
+        <v>122.7924752071179</v>
       </c>
       <c r="I14" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J14" t="n">
-        <v>434.7310277969951</v>
+        <v>434.7310277969952</v>
       </c>
       <c r="K14" t="n">
-        <v>766.1444296259458</v>
+        <v>766.1444296259459</v>
       </c>
       <c r="L14" t="n">
         <v>1214.193822030328</v>
@@ -5291,37 +5291,37 @@
         <v>2287.808426857337</v>
       </c>
       <c r="O14" t="n">
-        <v>2787.594048360161</v>
+        <v>2787.594048360162</v>
       </c>
       <c r="P14" t="n">
-        <v>3423.254970079434</v>
+        <v>3423.254970079435</v>
       </c>
       <c r="Q14" t="n">
-        <v>3879.690639299952</v>
+        <v>3879.690639299953</v>
       </c>
       <c r="R14" t="n">
         <v>4002.578835159678</v>
       </c>
       <c r="S14" t="n">
-        <v>3891.848405474074</v>
+        <v>4002.578835159678</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.786179319246</v>
+        <v>3796.516609004851</v>
       </c>
       <c r="U14" t="n">
-        <v>3432.254158724865</v>
+        <v>3542.984588410469</v>
       </c>
       <c r="V14" t="n">
-        <v>3101.191271381294</v>
+        <v>3211.921701066898</v>
       </c>
       <c r="W14" t="n">
-        <v>2748.422616111181</v>
+        <v>2859.153045796784</v>
       </c>
       <c r="X14" t="n">
-        <v>2374.956857850101</v>
+        <v>2485.687287535704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1984.817525874289</v>
+        <v>2095.547955559892</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>179.787964265442</v>
       </c>
       <c r="H15" t="n">
-        <v>89.18634703105758</v>
+        <v>89.18634703105759</v>
       </c>
       <c r="I15" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J15" t="n">
-        <v>172.7727233071651</v>
+        <v>172.7727233071652</v>
       </c>
       <c r="K15" t="n">
-        <v>409.4027559852219</v>
+        <v>409.402755985222</v>
       </c>
       <c r="L15" t="n">
-        <v>773.9035780358104</v>
+        <v>773.9035780358106</v>
       </c>
       <c r="M15" t="n">
         <v>1218.615713148033</v>
       </c>
       <c r="N15" t="n">
-        <v>1689.506700110165</v>
+        <v>1689.506700110166</v>
       </c>
       <c r="O15" t="n">
-        <v>2098.060161960239</v>
+        <v>2098.06016196024</v>
       </c>
       <c r="P15" t="n">
-        <v>2406.627267561091</v>
+        <v>2406.627267561092</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.977009577361</v>
+        <v>2562.977009577362</v>
       </c>
       <c r="R15" t="n">
         <v>2568.920267139094</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.7630699051371</v>
+        <v>649.4248203519684</v>
       </c>
       <c r="C16" t="n">
-        <v>247.7630699051371</v>
+        <v>649.4248203519684</v>
       </c>
       <c r="D16" t="n">
-        <v>247.7630699051371</v>
+        <v>499.3081809396325</v>
       </c>
       <c r="E16" t="n">
-        <v>247.7630699051371</v>
+        <v>351.3950873572393</v>
       </c>
       <c r="F16" t="n">
-        <v>247.7630699051371</v>
+        <v>204.5051398593286</v>
       </c>
       <c r="G16" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="H16" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="I16" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5743683774958</v>
+        <v>124.5743683774956</v>
       </c>
       <c r="K16" t="n">
-        <v>327.5758286731312</v>
+        <v>327.5758286731309</v>
       </c>
       <c r="L16" t="n">
-        <v>642.8742414979104</v>
+        <v>642.8742414979101</v>
       </c>
       <c r="M16" t="n">
-        <v>985.7013328165647</v>
+        <v>985.701332816564</v>
       </c>
       <c r="N16" t="n">
         <v>1325.81137858174</v>
       </c>
       <c r="O16" t="n">
-        <v>1623.941758737476</v>
+        <v>1623.941758737474</v>
       </c>
       <c r="P16" t="n">
-        <v>1855.523120346509</v>
+        <v>1855.523120346508</v>
       </c>
       <c r="Q16" t="n">
-        <v>1932.422971165769</v>
+        <v>1932.422971165767</v>
       </c>
       <c r="R16" t="n">
-        <v>1932.422971165769</v>
+        <v>1932.422971165767</v>
       </c>
       <c r="S16" t="n">
-        <v>1932.422971165769</v>
+        <v>1932.422971165767</v>
       </c>
       <c r="T16" t="n">
-        <v>1710.6193685441</v>
+        <v>1710.619368544099</v>
       </c>
       <c r="U16" t="n">
-        <v>1421.516029492835</v>
+        <v>1421.516029492833</v>
       </c>
       <c r="V16" t="n">
-        <v>1166.831541286948</v>
+        <v>1166.831541286947</v>
       </c>
       <c r="W16" t="n">
-        <v>878.1936647769244</v>
+        <v>877.4143712499858</v>
       </c>
       <c r="X16" t="n">
-        <v>650.2041138789072</v>
+        <v>649.4248203519684</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.411534735377</v>
+        <v>649.4248203519684</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1980.947039093528</v>
+        <v>2029.879922829483</v>
       </c>
       <c r="C17" t="n">
-        <v>1708.75857504949</v>
+        <v>1708.758575049492</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.33404560316</v>
+        <v>1398.334045603161</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.386962165336</v>
+        <v>1060.386962165337</v>
       </c>
       <c r="F17" t="n">
-        <v>697.2422265361486</v>
+        <v>697.2422265361497</v>
       </c>
       <c r="G17" t="n">
         <v>329.9916471888412</v>
       </c>
       <c r="H17" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="I17" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J17" t="n">
-        <v>267.3253787766421</v>
+        <v>434.7310277969952</v>
       </c>
       <c r="K17" t="n">
-        <v>598.7387806055926</v>
+        <v>806.4581255488873</v>
       </c>
       <c r="L17" t="n">
-        <v>1046.788173009975</v>
+        <v>1667.992120358216</v>
       </c>
       <c r="M17" t="n">
-        <v>1576.998889379514</v>
+        <v>2198.202836727755</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.402777836984</v>
+        <v>2741.606725185225</v>
       </c>
       <c r="O17" t="n">
-        <v>2777.679040519229</v>
+        <v>3241.39234668805</v>
       </c>
       <c r="P17" t="n">
-        <v>3488.314225753687</v>
+        <v>3633.446810832741</v>
       </c>
       <c r="Q17" t="n">
-        <v>3944.749894974204</v>
+        <v>3879.690639299953</v>
       </c>
       <c r="R17" t="n">
         <v>4002.578835159678</v>
       </c>
       <c r="S17" t="n">
-        <v>3939.689574634494</v>
+        <v>3988.622458370449</v>
       </c>
       <c r="T17" t="n">
-        <v>3781.468517640087</v>
+        <v>3830.401401376042</v>
       </c>
       <c r="U17" t="n">
-        <v>3575.777666206125</v>
+        <v>3624.710549942081</v>
       </c>
       <c r="V17" t="n">
-        <v>3292.555948022974</v>
+        <v>3341.48883175893</v>
       </c>
       <c r="W17" t="n">
-        <v>2987.62846191328</v>
+        <v>3036.561345649236</v>
       </c>
       <c r="X17" t="n">
-        <v>2662.003872812621</v>
+        <v>2710.936756548576</v>
       </c>
       <c r="Y17" t="n">
-        <v>2319.705709997229</v>
+        <v>2368.638593733185</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>179.787964265442</v>
       </c>
       <c r="H18" t="n">
-        <v>89.18634703105758</v>
+        <v>89.18634703105759</v>
       </c>
       <c r="I18" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J18" t="n">
-        <v>172.7727233071651</v>
+        <v>172.7727233071652</v>
       </c>
       <c r="K18" t="n">
-        <v>409.4027559852219</v>
+        <v>415.3460135469549</v>
       </c>
       <c r="L18" t="n">
-        <v>773.9035780358104</v>
+        <v>779.8468355975434</v>
       </c>
       <c r="M18" t="n">
-        <v>1218.615713148033</v>
+        <v>1224.558970709766</v>
       </c>
       <c r="N18" t="n">
-        <v>1689.506700110165</v>
+        <v>1695.449957671899</v>
       </c>
       <c r="O18" t="n">
-        <v>2098.060161960239</v>
+        <v>2104.003419521973</v>
       </c>
       <c r="P18" t="n">
-        <v>2406.627267561091</v>
+        <v>2412.570525122825</v>
       </c>
       <c r="Q18" t="n">
         <v>2568.920267139094</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.61090487177</v>
+        <v>770.6109048717699</v>
       </c>
       <c r="C19" t="n">
-        <v>649.5158911042832</v>
+        <v>649.5158911042831</v>
       </c>
       <c r="D19" t="n">
-        <v>547.2404208523676</v>
+        <v>547.2404208523675</v>
       </c>
       <c r="E19" t="n">
-        <v>447.1684964303946</v>
+        <v>447.1684964303945</v>
       </c>
       <c r="F19" t="n">
         <v>348.1197180929043</v>
@@ -5668,25 +5668,25 @@
         <v>129.7964115935142</v>
       </c>
       <c r="I19" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J19" t="n">
-        <v>171.4634982716233</v>
+        <v>171.4634982716235</v>
       </c>
       <c r="K19" t="n">
-        <v>421.3540884613864</v>
+        <v>421.3540884613867</v>
       </c>
       <c r="L19" t="n">
-        <v>783.5416311802933</v>
+        <v>783.5416311802937</v>
       </c>
       <c r="M19" t="n">
-        <v>1173.257852393075</v>
+        <v>1173.257852393076</v>
       </c>
       <c r="N19" t="n">
         <v>1560.257028052379</v>
       </c>
       <c r="O19" t="n">
-        <v>1905.276538102241</v>
+        <v>1905.276538102242</v>
       </c>
       <c r="P19" t="n">
         <v>2183.747029605403</v>
@@ -5695,19 +5695,19 @@
         <v>2307.53601031879</v>
       </c>
       <c r="R19" t="n">
-        <v>2265.157491071532</v>
+        <v>2265.157491071533</v>
       </c>
       <c r="S19" t="n">
-        <v>2121.161915536398</v>
+        <v>2121.161915536397</v>
       </c>
       <c r="T19" t="n">
-        <v>1947.19948207515</v>
+        <v>1947.199482075149</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.937312184305</v>
+        <v>1705.937312184304</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.093993138838</v>
+        <v>1499.093993138837</v>
       </c>
       <c r="W19" t="n">
         <v>1257.517992262297</v>
@@ -5716,7 +5716,7 @@
         <v>1077.3696105247</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.4182005415896</v>
+        <v>904.4182005415895</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2029.879922829482</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.75857504949</v>
+        <v>1708.758575049491</v>
       </c>
       <c r="D20" t="n">
         <v>1398.33404560316</v>
@@ -5738,61 +5738,61 @@
         <v>1060.386962165336</v>
       </c>
       <c r="F20" t="n">
-        <v>697.2422265361485</v>
+        <v>697.2422265361487</v>
       </c>
       <c r="G20" t="n">
         <v>329.9916471888412</v>
       </c>
       <c r="H20" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="I20" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J20" t="n">
-        <v>359.7567642818094</v>
+        <v>434.7310277969953</v>
       </c>
       <c r="K20" t="n">
-        <v>691.17016611076</v>
+        <v>766.1444296259461</v>
       </c>
       <c r="L20" t="n">
-        <v>1139.219558515142</v>
+        <v>1214.193822030329</v>
       </c>
       <c r="M20" t="n">
-        <v>1669.430274884682</v>
+        <v>1744.404538399868</v>
       </c>
       <c r="N20" t="n">
-        <v>2212.834163342151</v>
+        <v>2287.808426857338</v>
       </c>
       <c r="O20" t="n">
-        <v>2712.619784844976</v>
+        <v>2787.594048360163</v>
       </c>
       <c r="P20" t="n">
-        <v>3423.254970079434</v>
+        <v>3423.254970079435</v>
       </c>
       <c r="Q20" t="n">
-        <v>3879.690639299952</v>
+        <v>3879.690639299953</v>
       </c>
       <c r="R20" t="n">
         <v>4002.578835159678</v>
       </c>
       <c r="S20" t="n">
-        <v>3939.689574634494</v>
+        <v>3939.689574634495</v>
       </c>
       <c r="T20" t="n">
-        <v>3781.468517640087</v>
+        <v>3830.401401376041</v>
       </c>
       <c r="U20" t="n">
-        <v>3575.777666206125</v>
+        <v>3624.71054994208</v>
       </c>
       <c r="V20" t="n">
-        <v>3292.555948022974</v>
+        <v>3341.48883175893</v>
       </c>
       <c r="W20" t="n">
-        <v>3036.561345649235</v>
+        <v>3036.561345649236</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.936756548575</v>
+        <v>2710.936756548576</v>
       </c>
       <c r="Y20" t="n">
         <v>2368.638593733184</v>
@@ -5826,31 +5826,31 @@
         <v>89.18634703105758</v>
       </c>
       <c r="I21" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J21" t="n">
-        <v>172.7727233071651</v>
+        <v>178.7159808688975</v>
       </c>
       <c r="K21" t="n">
-        <v>409.4027559852219</v>
+        <v>415.3460135469544</v>
       </c>
       <c r="L21" t="n">
-        <v>773.9035780358104</v>
+        <v>779.8468355975431</v>
       </c>
       <c r="M21" t="n">
-        <v>1218.615713148033</v>
+        <v>1224.558970709766</v>
       </c>
       <c r="N21" t="n">
-        <v>1689.506700110165</v>
+        <v>1695.449957671899</v>
       </c>
       <c r="O21" t="n">
-        <v>2098.060161960239</v>
+        <v>2104.003419521973</v>
       </c>
       <c r="P21" t="n">
-        <v>2406.627267561091</v>
+        <v>2412.570525122825</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.977009577361</v>
+        <v>2568.920267139094</v>
       </c>
       <c r="R21" t="n">
         <v>2568.920267139094</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>770.6109048717699</v>
+        <v>770.6109048717701</v>
       </c>
       <c r="C22" t="n">
-        <v>649.5158911042831</v>
+        <v>649.5158911042832</v>
       </c>
       <c r="D22" t="n">
-        <v>547.2404208523675</v>
+        <v>547.2404208523676</v>
       </c>
       <c r="E22" t="n">
-        <v>447.1684964303945</v>
+        <v>447.1684964303946</v>
       </c>
       <c r="F22" t="n">
         <v>348.1197180929043</v>
@@ -5902,13 +5902,13 @@
         <v>228.2493940513809</v>
       </c>
       <c r="H22" t="n">
-        <v>129.7964115935142</v>
+        <v>129.7964115935143</v>
       </c>
       <c r="I22" t="n">
-        <v>80.05157670319355</v>
+        <v>80.05157670319358</v>
       </c>
       <c r="J22" t="n">
-        <v>171.4634982716235</v>
+        <v>171.4634982716234</v>
       </c>
       <c r="K22" t="n">
         <v>421.3540884613867</v>
@@ -5944,7 +5944,7 @@
         <v>1705.937312184304</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.093993138837</v>
+        <v>1499.093993138838</v>
       </c>
       <c r="W22" t="n">
         <v>1257.517992262297</v>
@@ -5953,7 +5953,7 @@
         <v>1077.3696105247</v>
       </c>
       <c r="Y22" t="n">
-        <v>904.4182005415895</v>
+        <v>904.4182005415897</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.878553109808</v>
+        <v>2030.878553109809</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329817</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883487</v>
       </c>
       <c r="E23" t="n">
         <v>1061.385592445662</v>
       </c>
       <c r="F23" t="n">
-        <v>698.2408568164743</v>
+        <v>698.2408568164749</v>
       </c>
       <c r="G23" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H23" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J23" t="n">
-        <v>435.7296580773207</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K23" t="n">
-        <v>767.1430599062713</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L23" t="n">
         <v>1215.192452310654</v>
       </c>
       <c r="M23" t="n">
-        <v>1745.403168680193</v>
+        <v>2190.421566838098</v>
       </c>
       <c r="N23" t="n">
-        <v>2288.807057137662</v>
+        <v>2733.825455295567</v>
       </c>
       <c r="O23" t="n">
-        <v>2788.592678640487</v>
+        <v>3233.611076798392</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.186484095714</v>
+        <v>3625.665540943083</v>
       </c>
       <c r="Q23" t="n">
         <v>3929.622153316232</v>
       </c>
       <c r="R23" t="n">
-        <v>4052.510349175957</v>
+        <v>4052.510349175958</v>
       </c>
       <c r="S23" t="n">
-        <v>3989.621088650774</v>
+        <v>3989.621088650775</v>
       </c>
       <c r="T23" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U23" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222407</v>
       </c>
       <c r="V23" t="n">
-        <v>3342.487462039255</v>
+        <v>3342.487462039256</v>
       </c>
       <c r="W23" t="n">
-        <v>3037.559975929561</v>
+        <v>3037.559975929562</v>
       </c>
       <c r="X23" t="n">
-        <v>2711.935386828901</v>
+        <v>2711.935386828902</v>
       </c>
       <c r="Y23" t="n">
-        <v>2369.63722401351</v>
+        <v>2369.637224013511</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>90.18497731138318</v>
       </c>
       <c r="I24" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J24" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K24" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L24" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.614343428358</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N24" t="n">
         <v>1690.505330390491</v>
@@ -6084,10 +6084,10 @@
         <v>2099.058792240565</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.625897841417</v>
+        <v>2413.56915540315</v>
       </c>
       <c r="Q24" t="n">
-        <v>2563.975639857686</v>
+        <v>2569.91889741942</v>
       </c>
       <c r="R24" t="n">
         <v>2569.91889741942</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.6095351520955</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C25" t="n">
-        <v>650.5145213846088</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2390511326931</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E25" t="n">
-        <v>448.1671267107201</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1183483732299</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G25" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317066</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738399</v>
       </c>
       <c r="I25" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J25" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519491</v>
       </c>
       <c r="K25" t="n">
         <v>422.3527187417122</v>
       </c>
       <c r="L25" t="n">
-        <v>784.5402614606189</v>
+        <v>784.5402614606194</v>
       </c>
       <c r="M25" t="n">
         <v>1174.256482673401</v>
@@ -6160,13 +6160,13 @@
         <v>1561.255658332705</v>
       </c>
       <c r="O25" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P25" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q25" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R25" t="n">
         <v>2266.156121351858</v>
@@ -6184,13 +6184,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W25" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X25" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.4168308219151</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C26" t="n">
         <v>1709.757205329816</v>
@@ -6209,64 +6209,64 @@
         <v>1399.332675883486</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.385592445661</v>
+        <v>1061.385592445662</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2408568164739</v>
+        <v>698.2408568164743</v>
       </c>
       <c r="G26" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H26" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J26" t="n">
-        <v>435.7296580773207</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K26" t="n">
-        <v>767.1430599062713</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L26" t="n">
         <v>1215.192452310654</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.403168680193</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N26" t="n">
-        <v>2288.807057137662</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.592678640487</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P26" t="n">
-        <v>3499.227863874946</v>
+        <v>3499.227863874947</v>
       </c>
       <c r="Q26" t="n">
-        <v>3929.622153316231</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R26" t="n">
-        <v>4052.510349175957</v>
+        <v>4052.510349175958</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.621088650773</v>
+        <v>3989.621088650775</v>
       </c>
       <c r="T26" t="n">
-        <v>3831.400031656366</v>
+        <v>3831.400031656367</v>
       </c>
       <c r="U26" t="n">
         <v>3625.709180222405</v>
       </c>
       <c r="V26" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W26" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X26" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y26" t="n">
         <v>2369.637224013509</v>
@@ -6300,19 +6300,19 @@
         <v>90.18497731138318</v>
       </c>
       <c r="I27" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J27" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L27" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.614343428358</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N27" t="n">
         <v>1690.505330390491</v>
@@ -6324,7 +6324,7 @@
         <v>2407.625897841417</v>
       </c>
       <c r="Q27" t="n">
-        <v>2563.975639857686</v>
+        <v>2563.975639857687</v>
       </c>
       <c r="R27" t="n">
         <v>2569.91889741942</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.6095351520953</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C28" t="n">
-        <v>650.5145213846085</v>
+        <v>650.5145213846088</v>
       </c>
       <c r="D28" t="n">
-        <v>548.2390511326929</v>
+        <v>548.2390511326931</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1671267107199</v>
+        <v>448.1671267107201</v>
       </c>
       <c r="F28" t="n">
-        <v>349.1183483732297</v>
+        <v>349.1183483732299</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2480243317063</v>
+        <v>229.2480243317065</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7950418738396</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I28" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J28" t="n">
         <v>172.462128551949</v>
       </c>
       <c r="K28" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L28" t="n">
-        <v>784.5402614606189</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M28" t="n">
         <v>1174.256482673401</v>
@@ -6400,7 +6400,7 @@
         <v>1906.275168382567</v>
       </c>
       <c r="P28" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q28" t="n">
         <v>2308.534640599116</v>
@@ -6421,13 +6421,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X28" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.4168308219149</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C29" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329817</v>
       </c>
       <c r="D29" t="n">
         <v>1399.332675883486</v>
@@ -6449,10 +6449,10 @@
         <v>1061.385592445662</v>
       </c>
       <c r="F29" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164747</v>
       </c>
       <c r="G29" t="n">
-        <v>330.9902774691668</v>
+        <v>330.9902774691667</v>
       </c>
       <c r="H29" t="n">
         <v>81.05020698351916</v>
@@ -6461,25 +6461,25 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J29" t="n">
-        <v>435.7296580773207</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K29" t="n">
-        <v>767.1430599062713</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L29" t="n">
         <v>1215.192452310654</v>
       </c>
       <c r="M29" t="n">
-        <v>2190.421566838097</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N29" t="n">
-        <v>2791.538239201505</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O29" t="n">
-        <v>3291.32386070433</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P29" t="n">
-        <v>3683.378324849021</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q29" t="n">
         <v>3929.622153316232</v>
@@ -6494,19 +6494,19 @@
         <v>3831.400031656367</v>
       </c>
       <c r="U29" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V29" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W29" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X29" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y29" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H30" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I30" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J30" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K30" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L30" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M30" t="n">
-        <v>1219.614343428358</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N30" t="n">
         <v>1690.505330390491</v>
@@ -6561,7 +6561,7 @@
         <v>2407.625897841417</v>
       </c>
       <c r="Q30" t="n">
-        <v>2563.975639857686</v>
+        <v>2563.975639857687</v>
       </c>
       <c r="R30" t="n">
         <v>2569.91889741942</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.6095351520944</v>
+        <v>771.6095351520976</v>
       </c>
       <c r="C31" t="n">
-        <v>650.5145213846076</v>
+        <v>650.5145213846108</v>
       </c>
       <c r="D31" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326928</v>
       </c>
       <c r="E31" t="n">
-        <v>448.1671267107202</v>
+        <v>448.1671267107199</v>
       </c>
       <c r="F31" t="n">
-        <v>349.1183483732299</v>
+        <v>349.1183483732297</v>
       </c>
       <c r="G31" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317063</v>
       </c>
       <c r="H31" t="n">
         <v>130.7950418738398</v>
@@ -6622,49 +6622,49 @@
         <v>172.462128551949</v>
       </c>
       <c r="K31" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417123</v>
       </c>
       <c r="L31" t="n">
-        <v>784.540261460619</v>
+        <v>784.5402614606196</v>
       </c>
       <c r="M31" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N31" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O31" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P31" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q31" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599117</v>
       </c>
       <c r="R31" t="n">
         <v>2266.156121351858</v>
       </c>
       <c r="S31" t="n">
-        <v>2122.160545816722</v>
+        <v>2122.160545816724</v>
       </c>
       <c r="T31" t="n">
-        <v>1948.198112355474</v>
+        <v>1948.198112355476</v>
       </c>
       <c r="U31" t="n">
-        <v>1706.935942464629</v>
+        <v>1706.935942464631</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.092623419162</v>
+        <v>1500.092623419164</v>
       </c>
       <c r="W31" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542624</v>
       </c>
       <c r="X31" t="n">
-        <v>1078.368240805024</v>
+        <v>1078.368240805027</v>
       </c>
       <c r="Y31" t="n">
-        <v>905.416830821914</v>
+        <v>905.4168308219171</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1709.757205329817</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.332675883487</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E32" t="n">
         <v>1061.385592445662</v>
       </c>
       <c r="F32" t="n">
-        <v>698.240856816475</v>
+        <v>698.2408568164747</v>
       </c>
       <c r="G32" t="n">
         <v>330.9902774691668</v>
@@ -6698,25 +6698,25 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J32" t="n">
-        <v>435.7296580773207</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K32" t="n">
-        <v>767.1430599062713</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L32" t="n">
         <v>1215.192452310654</v>
       </c>
       <c r="M32" t="n">
-        <v>2190.421566838097</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N32" t="n">
-        <v>2733.825455295566</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O32" t="n">
-        <v>3233.611076798391</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P32" t="n">
-        <v>3625.665540943082</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q32" t="n">
         <v>3929.622153316232</v>
@@ -6734,7 +6734,7 @@
         <v>3625.709180222406</v>
       </c>
       <c r="V32" t="n">
-        <v>3342.487462039255</v>
+        <v>3342.487462039256</v>
       </c>
       <c r="W32" t="n">
         <v>3037.559975929561</v>
@@ -6771,22 +6771,22 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H33" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I33" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J33" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K33" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L33" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M33" t="n">
-        <v>1219.614343428358</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N33" t="n">
         <v>1690.505330390491</v>
@@ -6798,7 +6798,7 @@
         <v>2407.625897841417</v>
       </c>
       <c r="Q33" t="n">
-        <v>2563.975639857686</v>
+        <v>2563.975639857687</v>
       </c>
       <c r="R33" t="n">
         <v>2569.91889741942</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.6095351520955</v>
+        <v>771.609535152096</v>
       </c>
       <c r="C34" t="n">
-        <v>650.5145213846088</v>
+        <v>650.5145213846091</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2390511326931</v>
+        <v>548.2390511326935</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1671267107201</v>
+        <v>448.1671267107205</v>
       </c>
       <c r="F34" t="n">
-        <v>349.1183483732299</v>
+        <v>349.1183483732302</v>
       </c>
       <c r="G34" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317068</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738401</v>
       </c>
       <c r="I34" t="n">
         <v>81.05020698351916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519493</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L34" t="n">
-        <v>784.5402614606188</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M34" t="n">
         <v>1174.256482673401</v>
@@ -6877,7 +6877,7 @@
         <v>2184.745659885728</v>
       </c>
       <c r="Q34" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R34" t="n">
         <v>2266.156121351858</v>
@@ -6892,16 +6892,16 @@
         <v>1706.93594246463</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.092623419163</v>
+        <v>1500.092623419164</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X34" t="n">
-        <v>1078.368240805025</v>
+        <v>1078.368240805026</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.4168308219151</v>
+        <v>905.4168308219156</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>81.05020698351915</v>
       </c>
       <c r="J35" t="n">
-        <v>435.7296580773207</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K35" t="n">
-        <v>767.1430599062713</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L35" t="n">
         <v>1215.192452310654</v>
       </c>
       <c r="M35" t="n">
-        <v>1745.403168680193</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N35" t="n">
-        <v>2288.807057137662</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O35" t="n">
-        <v>2788.592678640487</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P35" t="n">
-        <v>3499.227863874946</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q35" t="n">
         <v>3929.622153316232</v>
@@ -7008,22 +7008,22 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H36" t="n">
-        <v>90.18497731138318</v>
+        <v>90.18497731138316</v>
       </c>
       <c r="I36" t="n">
         <v>81.05020698351915</v>
       </c>
       <c r="J36" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K36" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L36" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.614343428358</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N36" t="n">
         <v>1690.505330390491</v>
@@ -7035,7 +7035,7 @@
         <v>2407.625897841417</v>
       </c>
       <c r="Q36" t="n">
-        <v>2563.975639857686</v>
+        <v>2563.975639857687</v>
       </c>
       <c r="R36" t="n">
         <v>2569.91889741942</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.6095351520951</v>
+        <v>771.6095351520954</v>
       </c>
       <c r="C37" t="n">
-        <v>650.5145213846083</v>
+        <v>650.5145213846087</v>
       </c>
       <c r="D37" t="n">
-        <v>548.2390511326927</v>
+        <v>548.239051132693</v>
       </c>
       <c r="E37" t="n">
-        <v>448.1671267107197</v>
+        <v>448.16712671072</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1183483732295</v>
+        <v>349.1183483732298</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2480243317061</v>
+        <v>229.2480243317063</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7950418738394</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I37" t="n">
         <v>81.05020698351915</v>
@@ -7099,13 +7099,13 @@
         <v>422.3527187417122</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5402614606191</v>
+        <v>784.5402614606188</v>
       </c>
       <c r="M37" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.255658332705</v>
+        <v>1561.255658332704</v>
       </c>
       <c r="O37" t="n">
         <v>1906.275168382567</v>
@@ -7120,16 +7120,16 @@
         <v>2266.156121351858</v>
       </c>
       <c r="S37" t="n">
-        <v>2122.160545816722</v>
+        <v>2122.160545816723</v>
       </c>
       <c r="T37" t="n">
-        <v>1948.198112355474</v>
+        <v>1948.198112355475</v>
       </c>
       <c r="U37" t="n">
-        <v>1706.935942464629</v>
+        <v>1706.93594246463</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.092623419162</v>
+        <v>1500.092623419163</v>
       </c>
       <c r="W37" t="n">
         <v>1258.516622542622</v>
@@ -7138,7 +7138,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.4168308219147</v>
+        <v>905.416830821915</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C38" t="n">
         <v>1709.757205329816</v>
@@ -7166,37 +7166,37 @@
         <v>330.9902774691668</v>
       </c>
       <c r="H38" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J38" t="n">
-        <v>435.7296580773207</v>
+        <v>298.976160605941</v>
       </c>
       <c r="K38" t="n">
-        <v>767.1430599062713</v>
+        <v>951.2935208803448</v>
       </c>
       <c r="L38" t="n">
-        <v>1215.192452310654</v>
+        <v>1399.342913284727</v>
       </c>
       <c r="M38" t="n">
-        <v>1745.403168680193</v>
+        <v>1929.553629654267</v>
       </c>
       <c r="N38" t="n">
-        <v>2288.807057137662</v>
+        <v>2472.957518111736</v>
       </c>
       <c r="O38" t="n">
-        <v>2788.592678640487</v>
+        <v>2972.743139614561</v>
       </c>
       <c r="P38" t="n">
-        <v>3473.186484095715</v>
+        <v>3683.37832484902</v>
       </c>
       <c r="Q38" t="n">
         <v>3929.622153316232</v>
       </c>
       <c r="R38" t="n">
-        <v>4052.510349175958</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S38" t="n">
         <v>3989.621088650774</v>
@@ -7214,7 +7214,7 @@
         <v>3037.55997592956</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y38" t="n">
         <v>2369.637224013509</v>
@@ -7245,25 +7245,25 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H39" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138316</v>
       </c>
       <c r="I39" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J39" t="n">
-        <v>179.7146111492245</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K39" t="n">
-        <v>416.3446438272813</v>
+        <v>416.3446438272807</v>
       </c>
       <c r="L39" t="n">
-        <v>780.8454658778697</v>
+        <v>780.8454658778693</v>
       </c>
       <c r="M39" t="n">
         <v>1225.557600990092</v>
       </c>
       <c r="N39" t="n">
-        <v>1696.448587952225</v>
+        <v>1696.448587952224</v>
       </c>
       <c r="O39" t="n">
         <v>2105.002049802299</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C40" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846088</v>
       </c>
       <c r="D40" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326931</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107201</v>
       </c>
       <c r="F40" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732299</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2480243317066</v>
+        <v>229.2480243317065</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I40" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519488</v>
       </c>
       <c r="K40" t="n">
-        <v>422.3527187417121</v>
+        <v>422.352718741712</v>
       </c>
       <c r="L40" t="n">
         <v>784.5402614606189</v>
@@ -7375,7 +7375,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2030.878553109808</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.757205329817</v>
+        <v>1709.757205329816</v>
       </c>
       <c r="D41" t="n">
         <v>1399.332675883486</v>
@@ -7397,43 +7397,43 @@
         <v>1061.385592445662</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2408568164745</v>
+        <v>698.2408568164742</v>
       </c>
       <c r="G41" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H41" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J41" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K41" t="n">
-        <v>599.7374108859183</v>
+        <v>1059.682401216806</v>
       </c>
       <c r="L41" t="n">
-        <v>1047.786803290301</v>
+        <v>1507.731793621189</v>
       </c>
       <c r="M41" t="n">
-        <v>1577.99751965984</v>
+        <v>2037.942509990728</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.765677358432</v>
+        <v>2581.346398448198</v>
       </c>
       <c r="O41" t="n">
-        <v>2762.551298861256</v>
+        <v>3081.132019951023</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.186484095715</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q41" t="n">
         <v>3929.622153316232</v>
       </c>
       <c r="R41" t="n">
-        <v>4052.510349175958</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S41" t="n">
         <v>3989.621088650774</v>
@@ -7442,7 +7442,7 @@
         <v>3831.400031656367</v>
       </c>
       <c r="U41" t="n">
-        <v>3625.709180222406</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V41" t="n">
         <v>3342.487462039255</v>
@@ -7454,7 +7454,7 @@
         <v>2711.935386828901</v>
       </c>
       <c r="Y41" t="n">
-        <v>2369.63722401351</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H42" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138316</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J42" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K42" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L42" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M42" t="n">
-        <v>1219.614343428358</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N42" t="n">
         <v>1690.505330390491</v>
@@ -7506,10 +7506,10 @@
         <v>2099.058792240565</v>
       </c>
       <c r="P42" t="n">
-        <v>2413.56915540315</v>
+        <v>2407.625897841417</v>
       </c>
       <c r="Q42" t="n">
-        <v>2569.91889741942</v>
+        <v>2563.975639857687</v>
       </c>
       <c r="R42" t="n">
         <v>2569.91889741942</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.6095351520956</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C43" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846088</v>
       </c>
       <c r="D43" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326931</v>
       </c>
       <c r="E43" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107201</v>
       </c>
       <c r="F43" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732299</v>
       </c>
       <c r="G43" t="n">
         <v>229.2480243317065</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I43" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.4621285519492</v>
+        <v>172.4621285519488</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3527187417123</v>
+        <v>422.352718741712</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5402614606191</v>
+        <v>784.5402614606189</v>
       </c>
       <c r="M43" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N43" t="n">
-        <v>1561.255658332705</v>
+        <v>1561.255658332704</v>
       </c>
       <c r="O43" t="n">
         <v>1906.275168382567</v>
@@ -7612,7 +7612,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.4168308219153</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.878553109808</v>
+        <v>2030.878553109807</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329815</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883485</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.385592445662</v>
+        <v>1061.385592445661</v>
       </c>
       <c r="F44" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164739</v>
       </c>
       <c r="G44" t="n">
         <v>330.9902774691668</v>
@@ -7646,22 +7646,22 @@
         <v>81.05020698351915</v>
       </c>
       <c r="J44" t="n">
-        <v>435.7296580773207</v>
+        <v>435.7296580773208</v>
       </c>
       <c r="K44" t="n">
-        <v>767.1430599062713</v>
+        <v>767.1430599062714</v>
       </c>
       <c r="L44" t="n">
         <v>1215.192452310654</v>
       </c>
       <c r="M44" t="n">
-        <v>1745.403168680193</v>
+        <v>1745.403168680194</v>
       </c>
       <c r="N44" t="n">
-        <v>2288.807057137662</v>
+        <v>2288.807057137663</v>
       </c>
       <c r="O44" t="n">
-        <v>2788.592678640487</v>
+        <v>2788.592678640488</v>
       </c>
       <c r="P44" t="n">
         <v>3473.186484095714</v>
@@ -7679,19 +7679,19 @@
         <v>3831.400031656367</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.709180222406</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V44" t="n">
-        <v>3342.487462039255</v>
+        <v>3342.487462039254</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.559975929561</v>
+        <v>3037.55997592956</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.935386828901</v>
+        <v>2711.9353868289</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.63722401351</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H45" t="n">
-        <v>90.18497731138318</v>
+        <v>90.18497731138316</v>
       </c>
       <c r="I45" t="n">
         <v>81.05020698351915</v>
       </c>
       <c r="J45" t="n">
-        <v>173.7713535874907</v>
+        <v>173.7713535874908</v>
       </c>
       <c r="K45" t="n">
-        <v>410.4013862655474</v>
+        <v>410.4013862655476</v>
       </c>
       <c r="L45" t="n">
-        <v>774.9022083161359</v>
+        <v>774.9022083161361</v>
       </c>
       <c r="M45" t="n">
-        <v>1225.557600990092</v>
+        <v>1219.614343428359</v>
       </c>
       <c r="N45" t="n">
-        <v>1696.448587952225</v>
+        <v>1690.505330390491</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.002049802299</v>
+        <v>2099.058792240565</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.56915540315</v>
+        <v>2407.625897841417</v>
       </c>
       <c r="Q45" t="n">
-        <v>2569.91889741942</v>
+        <v>2563.975639857687</v>
       </c>
       <c r="R45" t="n">
         <v>2569.91889741942</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.6095351520958</v>
+        <v>771.6095351520955</v>
       </c>
       <c r="C46" t="n">
-        <v>650.5145213846089</v>
+        <v>650.5145213846088</v>
       </c>
       <c r="D46" t="n">
-        <v>548.2390511326932</v>
+        <v>548.2390511326931</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1671267107203</v>
+        <v>448.1671267107201</v>
       </c>
       <c r="F46" t="n">
-        <v>349.11834837323</v>
+        <v>349.1183483732299</v>
       </c>
       <c r="G46" t="n">
-        <v>229.2480243317066</v>
+        <v>229.2480243317065</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738398</v>
       </c>
       <c r="I46" t="n">
         <v>81.05020698351915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.462128551949</v>
+        <v>172.4621285519491</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3527187417122</v>
+        <v>422.3527187417123</v>
       </c>
       <c r="L46" t="n">
-        <v>784.540261460619</v>
+        <v>784.5402614606189</v>
       </c>
       <c r="M46" t="n">
         <v>1174.256482673401</v>
@@ -7843,13 +7843,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X46" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.4168308219154</v>
+        <v>905.4168308219151</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.003290466397829</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>246.0671288632142</v>
+        <v>246.0671288632141</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.780878000934383</v>
+        <v>6.780878000933895</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>40.72090497266811</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>159.0814557367881</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6.003290466396805</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.003290466397374</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7775875345370196</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>93.3650358638053</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>246.0671288632131</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.003290466396223</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.780878000934383</v>
+        <v>0.7775875345369627</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>295.4942841520571</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>58.29574131912889</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>6.003290466397402</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.780878000934842</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.0105666404786</v>
+        <v>186.0105666404789</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.780878000934842</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>58.29574131913034</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>295.4942841520564</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.780878000934842</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>295.4942841520564</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.29574131913037</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.780878000934842</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>295.4942841520555</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.010566640479</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.780878000934842</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>30.96176924138715</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>295.494284152058</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.0032904663978</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>6.003290466397146</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.7775875345370196</v>
+        <v>0.7775875345369911</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>295.4942841520554</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>142.792191152649</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>6.003290466397914</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>295.4942841520571</v>
+        <v>295.4942841520555</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>6.0032904663978</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>315.738913809864</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6231253887476</v>
+        <v>109.6231253887475</v>
       </c>
       <c r="T11" t="n">
         <v>204.0016038932791</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9967003884377</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>121.4115284594363</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>81.48776495398364</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0343782699241</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8312101021039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.61014401023337</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.31749152360085</v>
+        <v>89.31749152360084</v>
       </c>
       <c r="S13" t="n">
         <v>189.9183772485996</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5855665954515</v>
       </c>
       <c r="U13" t="n">
-        <v>173.3503340232053</v>
+        <v>286.2123056607526</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>33.87971558921145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>262.2821535198943</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.6231253887477</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.82535074535052</v>
       </c>
       <c r="H16" t="n">
-        <v>144.8312101021039</v>
+        <v>144.831210102104</v>
       </c>
       <c r="I16" t="n">
-        <v>96.61014401023331</v>
+        <v>96.61014401023348</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.31749152360079</v>
+        <v>89.31749152360095</v>
       </c>
       <c r="S16" t="n">
-        <v>189.9183772485996</v>
+        <v>189.9183772485997</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7715005916672908</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>48.44355489859482</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>48.44355489859501</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>48.44355489859396</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>48.44355489859465</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>-2.458477865729947e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>225300.9931471856</v>
+      </c>
+      <c r="C2" t="n">
         <v>225300.9931471855</v>
       </c>
-      <c r="C2" t="n">
-        <v>225300.9931471856</v>
-      </c>
       <c r="D2" t="n">
-        <v>225300.9931471856</v>
+        <v>225300.9931471855</v>
       </c>
       <c r="E2" t="n">
-        <v>186960.4500709324</v>
+        <v>186960.4500709323</v>
       </c>
       <c r="F2" t="n">
-        <v>201832.5285699531</v>
+        <v>201832.5285699532</v>
       </c>
       <c r="G2" t="n">
-        <v>224726.0572959477</v>
+        <v>224726.057295948</v>
       </c>
       <c r="H2" t="n">
         <v>224726.0572959479</v>
       </c>
       <c r="I2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="J2" t="n">
         <v>225786.486712678</v>
       </c>
-      <c r="J2" t="n">
-        <v>225786.4867126779</v>
-      </c>
       <c r="K2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126782</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1118211.027744077</v>
+        <v>1118211.027744078</v>
       </c>
       <c r="F3" t="n">
-        <v>50161.28839520997</v>
+        <v>50161.28839520978</v>
       </c>
       <c r="G3" t="n">
-        <v>37890.20597505268</v>
+        <v>37890.20597505282</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37890.20597505267</v>
+        <v>37890.20597505274</v>
       </c>
       <c r="M3" t="n">
-        <v>205737.2315485643</v>
+        <v>205737.2315485644</v>
       </c>
       <c r="N3" t="n">
-        <v>42878.670287421</v>
+        <v>42878.67028742091</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>8779.807816620578</v>
+        <v>8779.807816620572</v>
       </c>
       <c r="F4" t="n">
-        <v>26795.53396675475</v>
+        <v>26795.53396675458</v>
       </c>
       <c r="G4" t="n">
-        <v>74428.36230238134</v>
+        <v>74428.36230238133</v>
       </c>
       <c r="H4" t="n">
-        <v>74428.36230238136</v>
+        <v>74428.36230238127</v>
       </c>
       <c r="I4" t="n">
-        <v>75712.94441204521</v>
+        <v>75712.94441204515</v>
       </c>
       <c r="J4" t="n">
-        <v>75712.94441204521</v>
+        <v>75712.94441204518</v>
       </c>
       <c r="K4" t="n">
-        <v>75712.94441204522</v>
+        <v>75712.94441204524</v>
       </c>
       <c r="L4" t="n">
-        <v>75712.94441204521</v>
+        <v>75712.94441204515</v>
       </c>
       <c r="M4" t="n">
-        <v>75712.94441204521</v>
+        <v>75712.94441204517</v>
       </c>
       <c r="N4" t="n">
         <v>75712.94441204518</v>
       </c>
       <c r="O4" t="n">
-        <v>75712.94441204522</v>
+        <v>75712.94441204517</v>
       </c>
       <c r="P4" t="n">
-        <v>75712.94441204518</v>
+        <v>75712.94441204517</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>73848.64439395536</v>
+        <v>73848.64439395539</v>
       </c>
       <c r="F5" t="n">
         <v>84492.72672654914</v>
       </c>
       <c r="G5" t="n">
-        <v>88474.46638419502</v>
+        <v>88474.46638419504</v>
       </c>
       <c r="H5" t="n">
-        <v>88474.46638419502</v>
+        <v>88474.46638419504</v>
       </c>
       <c r="I5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724249</v>
       </c>
       <c r="J5" t="n">
-        <v>89233.42539724246</v>
+        <v>89233.42539724249</v>
       </c>
       <c r="K5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724249</v>
       </c>
       <c r="L5" t="n">
-        <v>89233.42539724248</v>
+        <v>89233.42539724249</v>
       </c>
       <c r="M5" t="n">
         <v>89233.42539724248</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223099.0054657734</v>
+        <v>-223103.4190436414</v>
       </c>
       <c r="C6" t="n">
-        <v>-223099.0054657734</v>
+        <v>-223103.4190436416</v>
       </c>
       <c r="D6" t="n">
-        <v>-223099.0054657733</v>
+        <v>-223103.4190436415</v>
       </c>
       <c r="E6" t="n">
-        <v>-1013879.029883721</v>
+        <v>-1014231.993853192</v>
       </c>
       <c r="F6" t="n">
-        <v>40382.97948143921</v>
+        <v>40165.21622559673</v>
       </c>
       <c r="G6" t="n">
-        <v>23933.02263431871</v>
+        <v>23923.38236689398</v>
       </c>
       <c r="H6" t="n">
-        <v>61823.22860937146</v>
+        <v>61813.58834194674</v>
       </c>
       <c r="I6" t="n">
-        <v>57520.65736870957</v>
+        <v>57520.65736870973</v>
       </c>
       <c r="J6" t="n">
-        <v>60840.11690339026</v>
+        <v>60840.11690339037</v>
       </c>
       <c r="K6" t="n">
-        <v>60840.11690339021</v>
+        <v>60840.11690339028</v>
       </c>
       <c r="L6" t="n">
-        <v>22949.91092833757</v>
+        <v>22949.91092833762</v>
       </c>
       <c r="M6" t="n">
-        <v>-144897.114645174</v>
+        <v>-144897.1146451741</v>
       </c>
       <c r="N6" t="n">
-        <v>17961.44661596935</v>
+        <v>17961.44661596962</v>
       </c>
       <c r="O6" t="n">
-        <v>60840.11690339039</v>
+        <v>60840.11690339056</v>
       </c>
       <c r="P6" t="n">
-        <v>60840.11690339033</v>
+        <v>60840.1169033905</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>47.36275746881591</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.36275746881588</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.36275746881589</v>
+      </c>
+      <c r="J2" t="n">
         <v>47.3627574688159</v>
       </c>
-      <c r="H2" t="n">
-        <v>47.36275746881591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.36275746881591</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.36275746881591</v>
-      </c>
       <c r="K2" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M2" t="n">
         <v>47.36275746881591</v>
       </c>
       <c r="N2" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="O2" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P2" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>1085.024240005598</v>
       </c>
       <c r="H3" t="n">
-        <v>1085.024240005598</v>
+        <v>1085.024240005599</v>
       </c>
       <c r="I3" t="n">
         <v>1085.024240005598</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617328</v>
       </c>
       <c r="F4" t="n">
-        <v>1000.644708789919</v>
+        <v>1000.64470878992</v>
       </c>
       <c r="G4" t="n">
-        <v>1000.644708789919</v>
+        <v>1000.64470878992</v>
       </c>
       <c r="H4" t="n">
-        <v>1000.644708789919</v>
+        <v>1000.64470878992</v>
       </c>
       <c r="I4" t="n">
-        <v>1013.127587293989</v>
+        <v>1013.12758729399</v>
       </c>
       <c r="J4" t="n">
-        <v>1013.127587293989</v>
+        <v>1013.12758729399</v>
       </c>
       <c r="K4" t="n">
         <v>1013.12758729399</v>
@@ -26823,7 +26823,7 @@
         <v>1013.127587293989</v>
       </c>
       <c r="N4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="O4" t="n">
         <v>1013.127587293989</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.36275746881584</v>
+        <v>47.36275746881603</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881584</v>
+        <v>47.36275746881593</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617328</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0671436281871</v>
+        <v>175.0671436281868</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>825.5775651617321</v>
+        <v>825.5775651617325</v>
       </c>
       <c r="N4" t="n">
-        <v>175.0671436281873</v>
+        <v>175.0671436281868</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881584</v>
+        <v>47.36275746881603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617328</v>
       </c>
       <c r="N4" t="n">
-        <v>175.0671436281871</v>
+        <v>175.0671436281868</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>-1.13686837721616e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I17" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="J19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="K19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="L19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="N19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881552</v>
       </c>
       <c r="O19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="R19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="S19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="D20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="E20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="F20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="G20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="H20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="I20" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888492</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="T20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="U20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="V20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="W20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="X20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="C22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="D22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="E22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="F22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="G22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="I22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="J22" t="n">
-        <v>47.36275746881597</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="K22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="L22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="M22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="N22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="O22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="P22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="R22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="S22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="T22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="U22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="V22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="W22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="X22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881588</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I23" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L25" t="n">
-        <v>47.36275746881574</v>
+        <v>47.36275746881603</v>
       </c>
       <c r="M25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I26" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="J28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="K28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="L28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="M28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="N28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="O28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="P28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="R28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="S28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="C29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="D29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="E29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="F29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="G29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="H29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="I29" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="T29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="U29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="V29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="W29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="X29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="C31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="D31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="E31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="F31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="G31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="H31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="I31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="J31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="K31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="L31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="M31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="N31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="O31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="P31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="R31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="S31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="T31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="U31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="V31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="W31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="X31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881597</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I32" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="J34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="K34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="L34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="N34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="O34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="P34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="R34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="S34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>47.36275746881591</v>
       </c>
       <c r="I35" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I38" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="J40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881559</v>
       </c>
       <c r="K40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="L40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="N40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="O40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="R40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="S40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.36275746881588</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I41" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="J43" t="n">
-        <v>47.36275746881603</v>
+        <v>47.36275746881559</v>
       </c>
       <c r="K43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="L43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="M43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="N43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="O43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="R43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="S43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I44" t="n">
-        <v>42.31348951888498</v>
+        <v>42.31348951888495</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="C46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="D46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="E46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="F46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="G46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="H46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="I46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="J46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="L46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881552</v>
       </c>
       <c r="M46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="N46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="O46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="P46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="R46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="S46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="T46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="U46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="V46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="W46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="X46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881591</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H11" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I11" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J11" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K11" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L11" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M11" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N11" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O11" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P11" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R11" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S11" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T11" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U11" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H12" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I12" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J12" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K12" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L12" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M12" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N12" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O12" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P12" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q12" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R12" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S12" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T12" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U12" t="n">
         <v>0.1535411660385281</v>
@@ -31914,40 +31914,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I13" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J13" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K13" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L13" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M13" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N13" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O13" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P13" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q13" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R13" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S13" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T13" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U13" t="n">
         <v>0.1067236957382557</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H14" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I14" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J14" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K14" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L14" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M14" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N14" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O14" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P14" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R14" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S14" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T14" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U14" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H15" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I15" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J15" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K15" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L15" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M15" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N15" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O15" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P15" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R15" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S15" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T15" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U15" t="n">
         <v>0.1535411660385281</v>
@@ -32151,40 +32151,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I16" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J16" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K16" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L16" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M16" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N16" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O16" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P16" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q16" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R16" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S16" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T16" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U16" t="n">
         <v>0.1067236957382557</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H17" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I17" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J17" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K17" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L17" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M17" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N17" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O17" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P17" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R17" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S17" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T17" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U17" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H18" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I18" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J18" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K18" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L18" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M18" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N18" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O18" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P18" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q18" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R18" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S18" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T18" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U18" t="n">
         <v>0.1535411660385281</v>
@@ -32388,40 +32388,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I19" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J19" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K19" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L19" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M19" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N19" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O19" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P19" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q19" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R19" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S19" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T19" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U19" t="n">
         <v>0.1067236957382557</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484815</v>
       </c>
       <c r="H20" t="n">
-        <v>44.67137486616011</v>
+        <v>44.67137486616012</v>
       </c>
       <c r="I20" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J20" t="n">
-        <v>370.2113611665333</v>
+        <v>370.2113611665334</v>
       </c>
       <c r="K20" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934157</v>
       </c>
       <c r="L20" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127981</v>
       </c>
       <c r="M20" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985249</v>
       </c>
       <c r="N20" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202974</v>
       </c>
       <c r="O20" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356515</v>
       </c>
       <c r="P20" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024325</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403199</v>
       </c>
       <c r="R20" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S20" t="n">
-        <v>99.39694419749779</v>
+        <v>99.39694419749783</v>
       </c>
       <c r="T20" t="n">
-        <v>19.09424567085228</v>
+        <v>19.09424567085229</v>
       </c>
       <c r="U20" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H21" t="n">
-        <v>22.53984317445592</v>
+        <v>22.53984317445593</v>
       </c>
       <c r="I21" t="n">
-        <v>80.35321022682969</v>
+        <v>80.35321022682972</v>
       </c>
       <c r="J21" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K21" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026993</v>
       </c>
       <c r="L21" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158223</v>
       </c>
       <c r="M21" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030512</v>
       </c>
       <c r="N21" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612452</v>
       </c>
       <c r="O21" t="n">
-        <v>555.2765089394687</v>
+        <v>555.276508939469</v>
       </c>
       <c r="P21" t="n">
-        <v>445.6583524656957</v>
+        <v>445.6583524656958</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256882</v>
       </c>
       <c r="R21" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S21" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T21" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293819</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1535411660385281</v>
+        <v>0.1535411660385282</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.956601088534685</v>
+        <v>1.956601088534686</v>
       </c>
       <c r="H22" t="n">
         <v>17.39596240533567</v>
       </c>
       <c r="I22" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702493</v>
       </c>
       <c r="J22" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K22" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224844</v>
       </c>
       <c r="L22" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M22" t="n">
-        <v>306.7061142691234</v>
+        <v>306.7061142691235</v>
       </c>
       <c r="N22" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O22" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P22" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q22" t="n">
-        <v>163.8386602408453</v>
+        <v>163.8386602408454</v>
       </c>
       <c r="R22" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356866</v>
       </c>
       <c r="S22" t="n">
-        <v>34.09822078837264</v>
+        <v>34.09822078837265</v>
       </c>
       <c r="T22" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830019</v>
       </c>
       <c r="U22" t="n">
         <v>0.1067236957382557</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H23" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I23" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J23" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K23" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L23" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M23" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N23" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O23" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P23" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R23" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S23" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T23" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U23" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H24" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I24" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J24" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K24" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L24" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M24" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N24" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O24" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P24" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q24" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R24" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S24" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T24" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U24" t="n">
         <v>0.1535411660385281</v>
@@ -32862,40 +32862,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I25" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J25" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K25" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L25" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M25" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N25" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O25" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P25" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q25" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R25" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S25" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T25" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U25" t="n">
         <v>0.1067236957382557</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H26" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I26" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J26" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K26" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L26" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M26" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N26" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O26" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P26" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q26" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R26" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S26" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T26" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U26" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H27" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I27" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J27" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K27" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L27" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M27" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N27" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O27" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P27" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q27" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R27" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S27" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T27" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U27" t="n">
         <v>0.1535411660385281</v>
@@ -33099,40 +33099,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I28" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J28" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K28" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L28" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M28" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N28" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O28" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P28" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q28" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R28" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S28" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T28" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U28" t="n">
         <v>0.1067236957382557</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H29" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I29" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J29" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K29" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L29" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M29" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N29" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O29" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P29" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q29" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R29" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S29" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T29" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U29" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H30" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I30" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J30" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K30" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L30" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M30" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N30" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O30" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P30" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q30" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R30" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S30" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T30" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U30" t="n">
         <v>0.1535411660385281</v>
@@ -33336,40 +33336,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I31" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J31" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K31" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L31" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M31" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N31" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O31" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P31" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q31" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R31" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S31" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T31" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U31" t="n">
         <v>0.1067236957382557</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H32" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I32" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J32" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K32" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L32" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M32" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N32" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O32" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P32" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R32" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S32" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T32" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U32" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H33" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I33" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J33" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K33" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L33" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M33" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N33" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O33" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P33" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R33" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S33" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T33" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U33" t="n">
         <v>0.1535411660385281</v>
@@ -33573,40 +33573,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I34" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J34" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K34" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L34" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M34" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N34" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O34" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P34" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q34" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R34" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S34" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T34" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U34" t="n">
         <v>0.1067236957382557</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H35" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I35" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J35" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K35" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L35" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M35" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N35" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O35" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P35" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q35" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R35" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S35" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T35" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U35" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H36" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I36" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J36" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K36" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L36" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M36" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N36" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O36" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P36" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q36" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R36" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S36" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T36" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U36" t="n">
         <v>0.1535411660385281</v>
@@ -33810,40 +33810,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I37" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J37" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K37" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L37" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M37" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N37" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O37" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P37" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q37" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R37" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S37" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T37" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U37" t="n">
         <v>0.1067236957382557</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H38" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I38" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J38" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K38" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L38" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M38" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N38" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O38" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P38" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q38" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R38" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S38" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T38" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U38" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H39" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I39" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J39" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K39" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L39" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M39" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N39" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O39" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P39" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q39" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R39" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S39" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T39" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U39" t="n">
         <v>0.1535411660385281</v>
@@ -34047,40 +34047,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I40" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J40" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K40" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L40" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M40" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N40" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O40" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P40" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q40" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R40" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S40" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T40" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U40" t="n">
         <v>0.1067236957382557</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H41" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I41" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J41" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K41" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L41" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M41" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N41" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O41" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P41" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q41" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R41" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S41" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T41" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U41" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H42" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I42" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J42" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K42" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L42" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M42" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N42" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O42" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P42" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q42" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R42" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S42" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T42" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U42" t="n">
         <v>0.1535411660385281</v>
@@ -34284,40 +34284,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I43" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J43" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K43" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L43" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M43" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N43" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O43" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P43" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q43" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R43" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S43" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T43" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U43" t="n">
         <v>0.1067236957382557</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.361906492484813</v>
+        <v>4.361906492484814</v>
       </c>
       <c r="H44" t="n">
         <v>44.67137486616011</v>
       </c>
       <c r="I44" t="n">
-        <v>168.1624000515209</v>
+        <v>168.162400051521</v>
       </c>
       <c r="J44" t="n">
         <v>370.2113611665333</v>
       </c>
       <c r="K44" t="n">
-        <v>554.8508629934155</v>
+        <v>554.8508629934156</v>
       </c>
       <c r="L44" t="n">
-        <v>688.3415588127978</v>
+        <v>688.3415588127979</v>
       </c>
       <c r="M44" t="n">
-        <v>765.9126133985245</v>
+        <v>765.9126133985247</v>
       </c>
       <c r="N44" t="n">
-        <v>778.3058802202971</v>
+        <v>778.3058802202972</v>
       </c>
       <c r="O44" t="n">
-        <v>734.9321725356511</v>
+        <v>734.9321725356513</v>
       </c>
       <c r="P44" t="n">
-        <v>627.2476060024322</v>
+        <v>627.2476060024323</v>
       </c>
       <c r="Q44" t="n">
-        <v>471.0368297403197</v>
+        <v>471.0368297403198</v>
       </c>
       <c r="R44" t="n">
-        <v>273.9986087085494</v>
+        <v>273.9986087085495</v>
       </c>
       <c r="S44" t="n">
-        <v>99.39694419749779</v>
+        <v>99.3969441974978</v>
       </c>
       <c r="T44" t="n">
         <v>19.09424567085228</v>
       </c>
       <c r="U44" t="n">
-        <v>0.348952519398785</v>
+        <v>0.3489525193987851</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.333825723785626</v>
+        <v>2.333825723785627</v>
       </c>
       <c r="H45" t="n">
         <v>22.53984317445592</v>
       </c>
       <c r="I45" t="n">
-        <v>80.35321022682969</v>
+        <v>80.3532102268297</v>
       </c>
       <c r="J45" t="n">
-        <v>220.4953505090622</v>
+        <v>220.4953505090623</v>
       </c>
       <c r="K45" t="n">
-        <v>376.8616740026991</v>
+        <v>376.8616740026992</v>
       </c>
       <c r="L45" t="n">
-        <v>506.7370283158221</v>
+        <v>506.7370283158222</v>
       </c>
       <c r="M45" t="n">
-        <v>591.3382108030509</v>
+        <v>591.3382108030511</v>
       </c>
       <c r="N45" t="n">
-        <v>606.989173661245</v>
+        <v>606.9891736612451</v>
       </c>
       <c r="O45" t="n">
-        <v>555.2765089394687</v>
+        <v>555.2765089394688</v>
       </c>
       <c r="P45" t="n">
         <v>445.6583524656957</v>
       </c>
       <c r="Q45" t="n">
-        <v>297.910806425688</v>
+        <v>297.9108064256881</v>
       </c>
       <c r="R45" t="n">
-        <v>144.9019164294269</v>
+        <v>144.901916429427</v>
       </c>
       <c r="S45" t="n">
-        <v>43.34978921154439</v>
+        <v>43.3497892115444</v>
       </c>
       <c r="T45" t="n">
-        <v>9.406955439293814</v>
+        <v>9.406955439293817</v>
       </c>
       <c r="U45" t="n">
         <v>0.1535411660385281</v>
@@ -34521,40 +34521,40 @@
         <v>17.39596240533567</v>
       </c>
       <c r="I46" t="n">
-        <v>58.84033091702491</v>
+        <v>58.84033091702492</v>
       </c>
       <c r="J46" t="n">
-        <v>138.3316969594022</v>
+        <v>138.3316969594023</v>
       </c>
       <c r="K46" t="n">
-        <v>227.3214719224842</v>
+        <v>227.3214719224843</v>
       </c>
       <c r="L46" t="n">
-        <v>290.8932200172385</v>
+        <v>290.8932200172387</v>
       </c>
       <c r="M46" t="n">
         <v>306.7061142691234</v>
       </c>
       <c r="N46" t="n">
-        <v>299.4133283936761</v>
+        <v>299.4133283936762</v>
       </c>
       <c r="O46" t="n">
-        <v>276.5566702230663</v>
+        <v>276.5566702230664</v>
       </c>
       <c r="P46" t="n">
-        <v>236.6420080169585</v>
+        <v>236.6420080169586</v>
       </c>
       <c r="Q46" t="n">
         <v>163.8386602408453</v>
       </c>
       <c r="R46" t="n">
-        <v>87.97589985356863</v>
+        <v>87.97589985356865</v>
       </c>
       <c r="S46" t="n">
         <v>34.09822078837264</v>
       </c>
       <c r="T46" t="n">
-        <v>8.360022832830015</v>
+        <v>8.360022832830017</v>
       </c>
       <c r="U46" t="n">
         <v>0.1067236957382557</v>
@@ -35410,28 +35410,28 @@
         <v>189.165456639847</v>
       </c>
       <c r="K11" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L11" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M11" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N11" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0146102471627</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.7311398658702</v>
+        <v>248.7311398658703</v>
       </c>
       <c r="R11" t="n">
-        <v>58.41307089441727</v>
+        <v>58.41307089441733</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>99.66101430879334</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K12" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L12" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M12" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N12" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O12" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.97251684272945</v>
+        <v>44.97251684272948</v>
       </c>
       <c r="K13" t="n">
-        <v>205.0519800966014</v>
+        <v>205.0519800966015</v>
       </c>
       <c r="L13" t="n">
-        <v>318.4832452775547</v>
+        <v>318.4832452775548</v>
       </c>
       <c r="M13" t="n">
-        <v>346.2899912309639</v>
+        <v>346.289991230964</v>
       </c>
       <c r="N13" t="n">
-        <v>343.5455007729047</v>
+        <v>343.5455007729048</v>
       </c>
       <c r="O13" t="n">
         <v>301.141798137106</v>
       </c>
       <c r="P13" t="n">
-        <v>233.920567281852</v>
+        <v>233.9205672818521</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.67661698915093</v>
+        <v>77.67661698915096</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K14" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L14" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M14" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N14" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P14" t="n">
         <v>642.0817391103769</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.0461305257749</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R14" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K15" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L15" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M15" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N15" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O15" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P15" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R15" t="n">
-        <v>6.003290466397363</v>
+        <v>6.003290466396904</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.9725168427295</v>
+        <v>44.97251684272936</v>
       </c>
       <c r="K16" t="n">
-        <v>205.0519800966015</v>
+        <v>205.0519800966013</v>
       </c>
       <c r="L16" t="n">
         <v>318.4832452775547</v>
@@ -35814,16 +35814,16 @@
         <v>346.2899912309639</v>
       </c>
       <c r="N16" t="n">
-        <v>343.5455007729048</v>
+        <v>343.5455007729047</v>
       </c>
       <c r="O16" t="n">
-        <v>301.141798137106</v>
+        <v>301.1417981371059</v>
       </c>
       <c r="P16" t="n">
-        <v>233.9205672818521</v>
+        <v>233.920567281852</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.67661698915093</v>
+        <v>77.67661698915084</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K17" t="n">
-        <v>334.7610119484349</v>
+        <v>375.4819169211032</v>
       </c>
       <c r="L17" t="n">
-        <v>452.5751438428105</v>
+        <v>870.2363583932611</v>
       </c>
       <c r="M17" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N17" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O17" t="n">
-        <v>663.9154168507525</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P17" t="n">
-        <v>717.8133184186454</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.0461305257749</v>
+        <v>248.7311398658703</v>
       </c>
       <c r="R17" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K18" t="n">
-        <v>239.0202350283402</v>
+        <v>245.023525494737</v>
       </c>
       <c r="L18" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N18" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O18" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P18" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q18" t="n">
-        <v>163.9323228060639</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33527431154535</v>
+        <v>92.33527431154539</v>
       </c>
       <c r="K19" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L19" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M19" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N19" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417203</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P19" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.5304925036523</v>
+        <v>358.2620718119209</v>
       </c>
       <c r="K20" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484352</v>
       </c>
       <c r="L20" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428109</v>
       </c>
       <c r="M20" t="n">
-        <v>535.5663801712518</v>
+        <v>535.5663801712521</v>
       </c>
       <c r="N20" t="n">
-        <v>548.8928166237063</v>
+        <v>548.8928166237065</v>
       </c>
       <c r="O20" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139647</v>
       </c>
       <c r="P20" t="n">
-        <v>717.8133184186454</v>
+        <v>642.081739110376</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.0461305257749</v>
+        <v>461.0461305257751</v>
       </c>
       <c r="R20" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.65772384239551</v>
+        <v>99.66101430879182</v>
       </c>
       <c r="K21" t="n">
-        <v>239.0202350283402</v>
+        <v>239.0202350283403</v>
       </c>
       <c r="L21" t="n">
-        <v>368.1826485359479</v>
+        <v>368.1826485359481</v>
       </c>
       <c r="M21" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810329</v>
       </c>
       <c r="N21" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779119</v>
       </c>
       <c r="O21" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950245</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513656</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396667</v>
       </c>
       <c r="R21" t="n">
-        <v>6.003290466397363</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33527431154542</v>
+        <v>92.33527431154539</v>
       </c>
       <c r="K22" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L22" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M22" t="n">
         <v>393.6527486997799</v>
@@ -36291,13 +36291,13 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O22" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P22" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K23" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L23" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M23" t="n">
-        <v>535.5663801712518</v>
+        <v>985.0799136640845</v>
       </c>
       <c r="N23" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O23" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P23" t="n">
-        <v>691.5088943992198</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.0461305257749</v>
+        <v>307.0268811849992</v>
       </c>
       <c r="R23" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K24" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L24" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M24" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N24" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O24" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P24" t="n">
-        <v>311.6839450513654</v>
+        <v>317.6872355177629</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R24" t="n">
-        <v>6.003290466397822</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>252.4147375654173</v>
       </c>
       <c r="L25" t="n">
-        <v>365.8460027463705</v>
+        <v>365.8460027463709</v>
       </c>
       <c r="M25" t="n">
         <v>393.6527486997799</v>
@@ -36528,7 +36528,7 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O25" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P25" t="n">
         <v>281.2833247506679</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K26" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L26" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M26" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N26" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O26" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P26" t="n">
         <v>717.8133184186454</v>
       </c>
       <c r="Q26" t="n">
-        <v>434.7417065063488</v>
+        <v>434.7417065063493</v>
       </c>
       <c r="R26" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K27" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L27" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M27" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N27" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O27" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P27" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R27" t="n">
-        <v>6.003290466397822</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154538</v>
       </c>
       <c r="K28" t="n">
         <v>252.4147375654173</v>
       </c>
       <c r="L28" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M28" t="n">
         <v>393.6527486997799</v>
@@ -36765,13 +36765,13 @@
         <v>390.9082582417207</v>
       </c>
       <c r="O28" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P28" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K29" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L29" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M29" t="n">
-        <v>985.0799136640843</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N29" t="n">
-        <v>607.1885579428366</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O29" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0146102471627</v>
+        <v>691.5088943992192</v>
       </c>
       <c r="Q29" t="n">
-        <v>248.7311398658702</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R29" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K30" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L30" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M30" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N30" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O30" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P30" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q30" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R30" t="n">
-        <v>6.003290466397822</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.33527431154535</v>
+        <v>92.33527431154545</v>
       </c>
       <c r="K31" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L31" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463708</v>
       </c>
       <c r="M31" t="n">
-        <v>393.6527486997799</v>
+        <v>393.65274869978</v>
       </c>
       <c r="N31" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417208</v>
       </c>
       <c r="O31" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P31" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K32" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L32" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M32" t="n">
-        <v>985.0799136640843</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N32" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O32" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0146102471627</v>
+        <v>691.5088943992192</v>
       </c>
       <c r="Q32" t="n">
-        <v>307.0268811850006</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R32" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K33" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L33" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M33" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O33" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P33" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R33" t="n">
-        <v>6.003290466397822</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.33527431154533</v>
+        <v>92.33527431154535</v>
       </c>
       <c r="K34" t="n">
         <v>252.4147375654173</v>
       </c>
       <c r="L34" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M34" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N34" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O34" t="n">
-        <v>348.5045556059218</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P34" t="n">
         <v>281.2833247506679</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K35" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L35" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M35" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N35" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O35" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P35" t="n">
-        <v>717.8133184186454</v>
+        <v>691.5088943992183</v>
       </c>
       <c r="Q35" t="n">
-        <v>434.7417065063493</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R35" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K36" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L36" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M36" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N36" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O36" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P36" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R36" t="n">
-        <v>6.003290466397822</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154539</v>
       </c>
       <c r="K37" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L37" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M37" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N37" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O37" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P37" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>358.2620718119207</v>
+        <v>220.1272258812342</v>
       </c>
       <c r="K38" t="n">
-        <v>334.7610119484349</v>
+        <v>658.9064245195998</v>
       </c>
       <c r="L38" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M38" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N38" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O38" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P38" t="n">
-        <v>691.5088943992207</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.0461305257749</v>
+        <v>248.7311398658703</v>
       </c>
       <c r="R38" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>99.66101430879331</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K39" t="n">
-        <v>239.0202350283402</v>
+        <v>245.0235254947374</v>
       </c>
       <c r="L39" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M39" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N39" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O39" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P39" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33527431154533</v>
+        <v>92.33527431154506</v>
       </c>
       <c r="K40" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L40" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M40" t="n">
-        <v>393.6527486997798</v>
+        <v>393.6527486997799</v>
       </c>
       <c r="N40" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O40" t="n">
-        <v>348.5045556059218</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P40" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K41" t="n">
-        <v>334.7610119484349</v>
+        <v>630.2552961004905</v>
       </c>
       <c r="L41" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M41" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N41" t="n">
-        <v>691.6850077763553</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O41" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P41" t="n">
-        <v>717.8133184186454</v>
+        <v>396.0146102471628</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.0461305257749</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R41" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K42" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L42" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M42" t="n">
-        <v>449.2041768810325</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N42" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O42" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P42" t="n">
-        <v>317.6872355177633</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q42" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33527431154548</v>
+        <v>92.33527431154506</v>
       </c>
       <c r="K43" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L43" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463707</v>
       </c>
       <c r="M43" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N43" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O43" t="n">
-        <v>348.5045556059219</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P43" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.2620718119207</v>
+        <v>358.2620718119208</v>
       </c>
       <c r="K44" t="n">
-        <v>334.7610119484349</v>
+        <v>334.7610119484351</v>
       </c>
       <c r="L44" t="n">
-        <v>452.5751438428105</v>
+        <v>452.5751438428106</v>
       </c>
       <c r="M44" t="n">
-        <v>535.5663801712518</v>
+        <v>535.566380171252</v>
       </c>
       <c r="N44" t="n">
         <v>548.8928166237063</v>
       </c>
       <c r="O44" t="n">
-        <v>504.8339611139644</v>
+        <v>504.8339611139645</v>
       </c>
       <c r="P44" t="n">
-        <v>691.5088943992198</v>
+        <v>691.5088943992183</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.0461305257749</v>
+        <v>461.046130525775</v>
       </c>
       <c r="R44" t="n">
-        <v>124.1294907673997</v>
+        <v>124.1294907673998</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.65772384239551</v>
+        <v>93.65772384239557</v>
       </c>
       <c r="K45" t="n">
         <v>239.0202350283402</v>
       </c>
       <c r="L45" t="n">
-        <v>368.1826485359479</v>
+        <v>368.182648535948</v>
       </c>
       <c r="M45" t="n">
-        <v>455.2074673474303</v>
+        <v>449.2041768810328</v>
       </c>
       <c r="N45" t="n">
-        <v>475.6474615779117</v>
+        <v>475.6474615779118</v>
       </c>
       <c r="O45" t="n">
-        <v>412.6802644950243</v>
+        <v>412.6802644950244</v>
       </c>
       <c r="P45" t="n">
-        <v>311.6839450513654</v>
+        <v>311.6839450513655</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.9290323396665</v>
+        <v>157.9290323396666</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.33527431154533</v>
+        <v>92.33527431154539</v>
       </c>
       <c r="K46" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654174</v>
       </c>
       <c r="L46" t="n">
-        <v>365.8460027463706</v>
+        <v>365.8460027463703</v>
       </c>
       <c r="M46" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N46" t="n">
-        <v>390.9082582417206</v>
+        <v>390.9082582417207</v>
       </c>
       <c r="O46" t="n">
-        <v>348.5045556059218</v>
+        <v>348.504555605922</v>
       </c>
       <c r="P46" t="n">
-        <v>281.2833247506679</v>
+        <v>281.283324750668</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.0393744579668</v>
+        <v>125.0393744579669</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
